--- a/python/templates/criteria211Template.xlsx
+++ b/python/templates/criteria211Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAANKHADEEP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Personal Projects\NAAC Codebase\NAAC-DVV\python\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1EA329-B13B-4F6A-B582-6D252579E9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35174EC4-92DD-4CF8-BC9C-4DF8160F0C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{683DE5C0-BE7A-4EBB-984D-9AE6EB85D848}"/>
   </bookViews>
@@ -104,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -164,12 +164,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,11 +215,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26E999-0F70-40FC-9F6A-E07B0BDC2F70}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,224 +556,300 @@
     <col min="4" max="4" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
